--- a/training/results/ts/train_results.xlsx
+++ b/training/results/ts/train_results.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:DY6"/>
+  <dimension ref="A1:DY7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1730,1118 +1730,1565 @@
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>kernel_svm</t>
+          <t>linear_regression</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.3066161519909076</v>
+        <v>0.5849166230368541</v>
       </c>
       <c r="C4" t="n">
-        <v>0.01377432648847113</v>
+        <v>0.06411257853756795</v>
       </c>
       <c r="D4" t="n">
-        <v>0.3294222065800793</v>
+        <v>0.6971383191843403</v>
       </c>
       <c r="E4" t="n">
-        <v>0.03388152404697645</v>
+        <v>0.08213831655761657</v>
       </c>
       <c r="F4" t="n">
-        <v>0.2021276391221977</v>
+        <v>0.400330260757662</v>
       </c>
       <c r="G4" t="n">
-        <v>0.01355875405353425</v>
+        <v>0.03471160418623898</v>
       </c>
       <c r="H4" t="n">
-        <v>0.2082627477883856</v>
+        <v>0.4638605774652167</v>
       </c>
       <c r="I4" t="n">
-        <v>0.00984801984037212</v>
+        <v>0.04383258164850713</v>
       </c>
       <c r="J4" t="n">
-        <v>0.1096669478598342</v>
+        <v>0.4927485391220865</v>
       </c>
       <c r="K4" t="n">
-        <v>0.02410003026407566</v>
+        <v>0.09363978362843881</v>
       </c>
       <c r="L4" t="n">
-        <v>0.9965478125395262</v>
+        <v>0.9845052340866645</v>
       </c>
       <c r="M4" t="n">
-        <v>0.0007562932837751924</v>
-      </c>
-      <c r="N4" t="inlineStr"/>
-      <c r="O4" t="inlineStr"/>
-      <c r="P4" t="inlineStr"/>
-      <c r="Q4" t="inlineStr"/>
+        <v>0.002814297780217953</v>
+      </c>
+      <c r="N4" t="n">
+        <v>0.4782173375153947</v>
+      </c>
+      <c r="O4" t="n">
+        <v>0.0196586269272694</v>
+      </c>
+      <c r="P4" t="n">
+        <v>0.9363971037226885</v>
+      </c>
+      <c r="Q4" t="n">
+        <v>0.01675677268477787</v>
+      </c>
       <c r="R4" t="n">
-        <v>0.3386660136007483</v>
+        <v>0.5849166230368541</v>
       </c>
       <c r="S4" t="n">
-        <v>0.02051915368408172</v>
+        <v>0.06411257853756795</v>
       </c>
       <c r="T4" t="n">
-        <v>0.398160094348378</v>
+        <v>0.6971383191843403</v>
       </c>
       <c r="U4" t="n">
-        <v>0.03112195940844769</v>
+        <v>0.08213831655761657</v>
       </c>
       <c r="V4" t="n">
-        <v>0.1080476553660536</v>
+        <v>0.400330260757662</v>
       </c>
       <c r="W4" t="n">
-        <v>0.0130406970360088</v>
+        <v>0.03471160418623898</v>
       </c>
       <c r="X4" t="n">
-        <v>0.1474203820260289</v>
+        <v>0.4638605774652167</v>
       </c>
       <c r="Y4" t="n">
-        <v>0.01984545108035568</v>
+        <v>0.04383258164850713</v>
       </c>
       <c r="Z4" t="n">
-        <v>0.1595000370889304</v>
+        <v>0.4927485391220865</v>
       </c>
       <c r="AA4" t="n">
-        <v>0.026164165230569</v>
+        <v>0.09363978362843881</v>
       </c>
       <c r="AB4" t="n">
-        <v>0.9897927772971583</v>
+        <v>0.9845052340866645</v>
       </c>
       <c r="AC4" t="n">
-        <v>0.001312403793518147</v>
+        <v>0.002814297780217953</v>
       </c>
       <c r="AD4" t="n">
-        <v>0.8951592147904956</v>
+        <v>0.4782173375153947</v>
       </c>
       <c r="AE4" t="n">
-        <v>0.01296451753879056</v>
+        <v>0.0196586269272694</v>
       </c>
       <c r="AF4" t="n">
-        <v>0.9970885371823525</v>
+        <v>0.9363971037226885</v>
       </c>
       <c r="AG4" t="n">
-        <v>0.0007951520900881787</v>
+        <v>0.01675677268477787</v>
       </c>
       <c r="AH4" t="n">
-        <v>0.3328665076388618</v>
+        <v>0.5849166230368541</v>
       </c>
       <c r="AI4" t="n">
-        <v>0.02331397016736209</v>
+        <v>0.06411257853756795</v>
       </c>
       <c r="AJ4" t="n">
-        <v>0.3906561625307493</v>
+        <v>0.6971383191843403</v>
       </c>
       <c r="AK4" t="n">
-        <v>0.0252753146743846</v>
+        <v>0.08213831655761657</v>
       </c>
       <c r="AL4" t="n">
-        <v>0.1042756040425776</v>
+        <v>0.400330260757662</v>
       </c>
       <c r="AM4" t="n">
-        <v>0.01405054915933898</v>
+        <v>0.03471160418623898</v>
       </c>
       <c r="AN4" t="n">
-        <v>0.1411908670397085</v>
+        <v>0.4638605774652167</v>
       </c>
       <c r="AO4" t="n">
-        <v>0.01527665795019155</v>
+        <v>0.04383258164850713</v>
       </c>
       <c r="AP4" t="n">
-        <v>0.1532510788551404</v>
+        <v>0.4927485391220865</v>
       </c>
       <c r="AQ4" t="n">
-        <v>0.02047667411255558</v>
+        <v>0.09363978362843881</v>
       </c>
       <c r="AR4" t="n">
-        <v>0.9902646022145144</v>
+        <v>0.9845052340866645</v>
       </c>
       <c r="AS4" t="n">
-        <v>0.0007519126865727455</v>
+        <v>0.002814297780217953</v>
       </c>
       <c r="AT4" t="n">
-        <v>0.8989312661139717</v>
+        <v>0.4782173375153947</v>
       </c>
       <c r="AU4" t="n">
-        <v>0.01397293443462108</v>
+        <v>0.0196586269272694</v>
       </c>
       <c r="AV4" t="n">
-        <v>0.9970885371823525</v>
+        <v>0.9363971037226885</v>
       </c>
       <c r="AW4" t="n">
-        <v>0.0007951520900881787</v>
+        <v>0.01675677268477787</v>
       </c>
       <c r="AX4" t="n">
-        <v>0.3364297302745621</v>
+        <v>0.5849166230368541</v>
       </c>
       <c r="AY4" t="n">
-        <v>0.02718904201165601</v>
+        <v>0.06411257853756795</v>
       </c>
       <c r="AZ4" t="n">
-        <v>0.3920682836085331</v>
+        <v>0.6971383191843403</v>
       </c>
       <c r="BA4" t="n">
-        <v>0.02629265832169798</v>
+        <v>0.08213831655761657</v>
       </c>
       <c r="BB4" t="n">
-        <v>0.1066300479945643</v>
+        <v>0.400330260757662</v>
       </c>
       <c r="BC4" t="n">
-        <v>0.01638254660571013</v>
+        <v>0.03471160418623898</v>
       </c>
       <c r="BD4" t="n">
-        <v>0.1426746184721234</v>
+        <v>0.4638605774652167</v>
       </c>
       <c r="BE4" t="n">
-        <v>0.01370245028676088</v>
+        <v>0.04383258164850713</v>
       </c>
       <c r="BF4" t="n">
-        <v>0.1544088428933627</v>
+        <v>0.4927485391220865</v>
       </c>
       <c r="BG4" t="n">
-        <v>0.02041464320056167</v>
+        <v>0.09363978362843881</v>
       </c>
       <c r="BH4" t="n">
-        <v>0.9896587603234729</v>
+        <v>0.9845052340866645</v>
       </c>
       <c r="BI4" t="n">
-        <v>0.001383705846289866</v>
+        <v>0.002814297780217953</v>
       </c>
       <c r="BJ4" t="n">
-        <v>0.8966988182533183</v>
+        <v>0.4782173375153947</v>
       </c>
       <c r="BK4" t="n">
-        <v>0.01606878230051495</v>
+        <v>0.0196586269272694</v>
       </c>
       <c r="BL4" t="n">
-        <v>0.9969207066143539</v>
+        <v>0.9363971037226885</v>
       </c>
       <c r="BM4" t="n">
-        <v>0.001111364435140583</v>
+        <v>0.01675677268477787</v>
       </c>
       <c r="BN4" t="n">
-        <v>0.2685050629325271</v>
+        <v>0.5849166230368541</v>
       </c>
       <c r="BO4" t="n">
-        <v>0.02685669022412808</v>
+        <v>0.06411257853756795</v>
       </c>
       <c r="BP4" t="n">
-        <v>0.2920559859261798</v>
+        <v>0.6971383191843403</v>
       </c>
       <c r="BQ4" t="n">
-        <v>0.03688557217622993</v>
+        <v>0.08213831655761657</v>
       </c>
       <c r="BR4" t="n">
-        <v>0.06666358084001946</v>
+        <v>0.400330260757662</v>
       </c>
       <c r="BS4" t="n">
-        <v>0.01290534724983799</v>
+        <v>0.03471160418623898</v>
       </c>
       <c r="BT4" t="n">
-        <v>0.0766380253713534</v>
+        <v>0.4638605774652167</v>
       </c>
       <c r="BU4" t="n">
-        <v>0.01537188486786738</v>
+        <v>0.04383258164850713</v>
       </c>
       <c r="BV4" t="n">
-        <v>0.08665724435008082</v>
+        <v>0.4927485391220865</v>
       </c>
       <c r="BW4" t="n">
-        <v>0.02083296006978664</v>
+        <v>0.09363978362843881</v>
       </c>
       <c r="BX4" t="n">
-        <v>0.992925912482349</v>
+        <v>0.9845052340866645</v>
       </c>
       <c r="BY4" t="n">
-        <v>0.001027031501102612</v>
+        <v>0.002814297780217953</v>
       </c>
       <c r="BZ4" t="n">
-        <v>0.9363249644916063</v>
+        <v>0.4782173375153947</v>
       </c>
       <c r="CA4" t="n">
-        <v>0.01244034848227101</v>
+        <v>0.0196586269272694</v>
       </c>
       <c r="CB4" t="n">
-        <v>0.9972553477257153</v>
+        <v>0.9363971037226885</v>
       </c>
       <c r="CC4" t="n">
-        <v>0.001028191319994648</v>
+        <v>0.01675677268477787</v>
       </c>
       <c r="CD4" t="n">
-        <v>0.3328665076388618</v>
+        <v>0.5849166230368541</v>
       </c>
       <c r="CE4" t="n">
-        <v>0.02331397016736209</v>
+        <v>0.06411257853756795</v>
       </c>
       <c r="CF4" t="n">
-        <v>0.3906561625307493</v>
+        <v>0.6971383191843403</v>
       </c>
       <c r="CG4" t="n">
-        <v>0.0252753146743846</v>
+        <v>0.08213831655761657</v>
       </c>
       <c r="CH4" t="n">
-        <v>0.1042756040425776</v>
+        <v>0.400330260757662</v>
       </c>
       <c r="CI4" t="n">
-        <v>0.01405054915933898</v>
+        <v>0.03471160418623898</v>
       </c>
       <c r="CJ4" t="n">
-        <v>0.1411908670397085</v>
+        <v>0.4638605774652167</v>
       </c>
       <c r="CK4" t="n">
-        <v>0.01527665795019155</v>
+        <v>0.04383258164850713</v>
       </c>
       <c r="CL4" t="n">
-        <v>0.1532510788551404</v>
+        <v>0.4927485391220865</v>
       </c>
       <c r="CM4" t="n">
-        <v>0.02047667411255558</v>
+        <v>0.09363978362843881</v>
       </c>
       <c r="CN4" t="n">
-        <v>0.9902646022145144</v>
+        <v>0.9845052340866645</v>
       </c>
       <c r="CO4" t="n">
-        <v>0.0007519126865727455</v>
+        <v>0.002814297780217953</v>
       </c>
       <c r="CP4" t="n">
-        <v>0.8989312661139717</v>
+        <v>0.4782173375153947</v>
       </c>
       <c r="CQ4" t="n">
-        <v>0.01397293443462108</v>
+        <v>0.0196586269272694</v>
       </c>
       <c r="CR4" t="n">
-        <v>0.9970885371823525</v>
+        <v>0.9363971037226885</v>
       </c>
       <c r="CS4" t="n">
-        <v>0.0007951520900881787</v>
+        <v>0.01675677268477787</v>
       </c>
       <c r="CT4" t="n">
-        <v>0.3151256935139737</v>
+        <v>0.5849166230368541</v>
       </c>
       <c r="CU4" t="n">
-        <v>0.02998053941511779</v>
+        <v>0.06411257853756795</v>
       </c>
       <c r="CV4" t="n">
-        <v>0.3734591430100335</v>
+        <v>0.6971383191843403</v>
       </c>
       <c r="CW4" t="n">
-        <v>0.02055696532064364</v>
+        <v>0.08213831655761657</v>
       </c>
       <c r="CX4" t="n">
-        <v>0.09342037888802369</v>
+        <v>0.400330260757662</v>
       </c>
       <c r="CY4" t="n">
-        <v>0.01714362934548673</v>
+        <v>0.03471160418623898</v>
       </c>
       <c r="CZ4" t="n">
-        <v>0.128477236864557</v>
+        <v>0.4638605774652167</v>
       </c>
       <c r="DA4" t="n">
-        <v>0.009747436646517883</v>
+        <v>0.04383258164850713</v>
       </c>
       <c r="DB4" t="n">
-        <v>0.1398943203209828</v>
+        <v>0.4927485391220865</v>
       </c>
       <c r="DC4" t="n">
-        <v>0.01524162570677409</v>
+        <v>0.09363978362843881</v>
       </c>
       <c r="DD4" t="n">
-        <v>0.991380789148858</v>
+        <v>0.9845052340866645</v>
       </c>
       <c r="DE4" t="n">
-        <v>0.00112013200669915</v>
+        <v>0.002814297780217953</v>
       </c>
       <c r="DF4" t="n">
-        <v>0.9096437950176163</v>
+        <v>0.4782173375153947</v>
       </c>
       <c r="DG4" t="n">
-        <v>0.01700703837389188</v>
+        <v>0.0196586269272694</v>
       </c>
       <c r="DH4" t="n">
-        <v>0.9972312334332619</v>
+        <v>0.9363971037226885</v>
       </c>
       <c r="DI4" t="n">
-        <v>0.000988951723304684</v>
+        <v>0.01675677268477787</v>
       </c>
       <c r="DJ4" t="n">
-        <v>0.2773047651521515</v>
+        <v>0.5849166230368541</v>
       </c>
       <c r="DK4" t="n">
-        <v>0.02532588973062468</v>
+        <v>0.06411257853756795</v>
       </c>
       <c r="DL4" t="n">
-        <v>0.3048335381075921</v>
+        <v>0.6971383191843403</v>
       </c>
       <c r="DM4" t="n">
-        <v>0.03536822135976369</v>
+        <v>0.08213831655761657</v>
       </c>
       <c r="DN4" t="n">
-        <v>0.07153168221614944</v>
+        <v>0.400330260757662</v>
       </c>
       <c r="DO4" t="n">
-        <v>0.01264384972443486</v>
+        <v>0.03471160418623898</v>
       </c>
       <c r="DP4" t="n">
-        <v>0.0839706220867046</v>
+        <v>0.4638605774652167</v>
       </c>
       <c r="DQ4" t="n">
-        <v>0.01534042092748037</v>
+        <v>0.04383258164850713</v>
       </c>
       <c r="DR4" t="n">
-        <v>0.09417439703734608</v>
+        <v>0.4927485391220865</v>
       </c>
       <c r="DS4" t="n">
-        <v>0.02099750625567595</v>
+        <v>0.09363978362843881</v>
       </c>
       <c r="DT4" t="n">
-        <v>0.9927437864174825</v>
+        <v>0.9845052340866645</v>
       </c>
       <c r="DU4" t="n">
-        <v>0.0009681516637268805</v>
+        <v>0.002814297780217953</v>
       </c>
       <c r="DV4" t="n">
-        <v>0.9313442897431188</v>
+        <v>0.4782173375153947</v>
       </c>
       <c r="DW4" t="n">
-        <v>0.01235098334067416</v>
+        <v>0.0196586269272694</v>
       </c>
       <c r="DX4" t="n">
-        <v>0.9974079852006372</v>
+        <v>0.9363971037226885</v>
       </c>
       <c r="DY4" t="n">
-        <v>0.001064650870661052</v>
+        <v>0.01675677268477787</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
         <is>
-          <t>random_forest</t>
+          <t>linear_regression_ridge</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.1636176892282085</v>
+        <v>0.5925286252594739</v>
       </c>
       <c r="C5" t="n">
-        <v>0.02055092337028476</v>
+        <v>0.06653737138507793</v>
       </c>
       <c r="D5" t="n">
-        <v>0.1946273324558244</v>
+        <v>0.7085205721680784</v>
       </c>
       <c r="E5" t="n">
-        <v>0.02623146328025233</v>
+        <v>0.08560142935062226</v>
       </c>
       <c r="F5" t="n">
-        <v>0.09924806228253215</v>
+        <v>0.4013922320788212</v>
       </c>
       <c r="G5" t="n">
-        <v>0.01139694481087562</v>
+        <v>0.03379463204212885</v>
       </c>
       <c r="H5" t="n">
-        <v>0.1167904506010664</v>
+        <v>0.4665358221355828</v>
       </c>
       <c r="I5" t="n">
-        <v>0.01654496019906234</v>
+        <v>0.04293947779773623</v>
       </c>
       <c r="J5" t="n">
-        <v>0.03856788820469325</v>
+        <v>0.5093290058922508</v>
       </c>
       <c r="K5" t="n">
-        <v>0.01093548858534628</v>
+        <v>0.102692716279267</v>
       </c>
       <c r="L5" t="n">
-        <v>0.9997262461288767</v>
+        <v>0.9842716645503138</v>
       </c>
       <c r="M5" t="n">
-        <v>0.0001707757641814824</v>
-      </c>
-      <c r="N5" t="inlineStr"/>
-      <c r="O5" t="inlineStr"/>
-      <c r="P5" t="inlineStr"/>
-      <c r="Q5" t="inlineStr"/>
+        <v>0.002800031361900816</v>
+      </c>
+      <c r="N5" t="n">
+        <v>0.4752737026174838</v>
+      </c>
+      <c r="O5" t="n">
+        <v>0.01658808611422269</v>
+      </c>
+      <c r="P5" t="n">
+        <v>0.9361670862083005</v>
+      </c>
+      <c r="Q5" t="n">
+        <v>0.01552363958328837</v>
+      </c>
       <c r="R5" t="n">
-        <v>0.1849887724325146</v>
+        <v>0.5925286252594739</v>
       </c>
       <c r="S5" t="n">
-        <v>0.02366999809272448</v>
+        <v>0.06653737138507793</v>
       </c>
       <c r="T5" t="n">
-        <v>0.2656738258423861</v>
+        <v>0.7085205721680784</v>
       </c>
       <c r="U5" t="n">
-        <v>0.0213158714403005</v>
+        <v>0.08560142935062226</v>
       </c>
       <c r="V5" t="n">
-        <v>0.03293111583628412</v>
+        <v>0.4013922320788212</v>
       </c>
       <c r="W5" t="n">
-        <v>0.008251942656083245</v>
+        <v>0.03379463204212885</v>
       </c>
       <c r="X5" t="n">
-        <v>0.06732958824066625</v>
+        <v>0.4665358221355828</v>
       </c>
       <c r="Y5" t="n">
-        <v>0.01042735600628405</v>
+        <v>0.04293947779773623</v>
       </c>
       <c r="Z5" t="n">
-        <v>0.07103694811298994</v>
+        <v>0.5093290058922508</v>
       </c>
       <c r="AA5" t="n">
-        <v>0.01189103724920307</v>
+        <v>0.102692716279267</v>
       </c>
       <c r="AB5" t="n">
-        <v>0.9980486430712181</v>
+        <v>0.9842716645503138</v>
       </c>
       <c r="AC5" t="n">
-        <v>0.0007333774662811279</v>
+        <v>0.002800031361900816</v>
       </c>
       <c r="AD5" t="n">
-        <v>0.967993883613473</v>
+        <v>0.4752737026174838</v>
       </c>
       <c r="AE5" t="n">
-        <v>0.007614721189335605</v>
+        <v>0.01658808611422269</v>
       </c>
       <c r="AF5" t="n">
-        <v>0.9990750005502431</v>
+        <v>0.9361670862083005</v>
       </c>
       <c r="AG5" t="n">
-        <v>0.0007838186352725709</v>
+        <v>0.01552363958328837</v>
       </c>
       <c r="AH5" t="n">
-        <v>0.1748717615050048</v>
+        <v>0.5925286252594739</v>
       </c>
       <c r="AI5" t="n">
-        <v>0.02095393316698322</v>
+        <v>0.06653737138507793</v>
       </c>
       <c r="AJ5" t="n">
-        <v>0.258602610564923</v>
+        <v>0.7085205721680784</v>
       </c>
       <c r="AK5" t="n">
-        <v>0.02079275783893944</v>
+        <v>0.08560142935062226</v>
       </c>
       <c r="AL5" t="n">
-        <v>0.02916920138751555</v>
+        <v>0.4013922320788212</v>
       </c>
       <c r="AM5" t="n">
-        <v>0.006424541464569537</v>
+        <v>0.03379463204212885</v>
       </c>
       <c r="AN5" t="n">
-        <v>0.06360028909721828</v>
+        <v>0.4665358221355828</v>
       </c>
       <c r="AO5" t="n">
-        <v>0.01014808031211118</v>
+        <v>0.04293947779773623</v>
       </c>
       <c r="AP5" t="n">
-        <v>0.06730764896954197</v>
+        <v>0.5093290058922508</v>
       </c>
       <c r="AQ5" t="n">
-        <v>0.01151392779646323</v>
+        <v>0.102692716279267</v>
       </c>
       <c r="AR5" t="n">
-        <v>0.9983837211601787</v>
+        <v>0.9842716645503138</v>
       </c>
       <c r="AS5" t="n">
-        <v>0.0005066390443434229</v>
+        <v>0.002800031361900816</v>
       </c>
       <c r="AT5" t="n">
-        <v>0.9717557980622415</v>
+        <v>0.4752737026174838</v>
       </c>
       <c r="AU5" t="n">
-        <v>0.005916417775021523</v>
+        <v>0.01658808611422269</v>
       </c>
       <c r="AV5" t="n">
-        <v>0.9990750005502431</v>
+        <v>0.9361670862083005</v>
       </c>
       <c r="AW5" t="n">
-        <v>0.0007838186352725709</v>
+        <v>0.01552363958328837</v>
       </c>
       <c r="AX5" t="n">
-        <v>0.1870651479234295</v>
+        <v>0.5925286252594739</v>
       </c>
       <c r="AY5" t="n">
-        <v>0.03890371358114037</v>
+        <v>0.06653737138507793</v>
       </c>
       <c r="AZ5" t="n">
-        <v>0.2648661103794399</v>
+        <v>0.7085205721680784</v>
       </c>
       <c r="BA5" t="n">
-        <v>0.02262169535987996</v>
+        <v>0.08560142935062226</v>
       </c>
       <c r="BB5" t="n">
-        <v>0.03465686959850384</v>
+        <v>0.4013922320788212</v>
       </c>
       <c r="BC5" t="n">
-        <v>0.01083688144560014</v>
+        <v>0.03379463204212885</v>
       </c>
       <c r="BD5" t="n">
-        <v>0.06695843765616522</v>
+        <v>0.4665358221355828</v>
       </c>
       <c r="BE5" t="n">
-        <v>0.009573560162888933</v>
+        <v>0.04293947779773623</v>
       </c>
       <c r="BF5" t="n">
-        <v>0.07066579752848888</v>
+        <v>0.5093290058922508</v>
       </c>
       <c r="BG5" t="n">
-        <v>0.01166891526688521</v>
+        <v>0.102692716279267</v>
       </c>
       <c r="BH5" t="n">
-        <v>0.9977146286614194</v>
+        <v>0.9842716645503138</v>
       </c>
       <c r="BI5" t="n">
-        <v>0.0008860684615689393</v>
+        <v>0.002800031361900816</v>
       </c>
       <c r="BJ5" t="n">
-        <v>0.9662681298512532</v>
+        <v>0.4752737026174838</v>
       </c>
       <c r="BK5" t="n">
-        <v>0.0103480367293666</v>
+        <v>0.01658808611422269</v>
       </c>
       <c r="BL5" t="n">
-        <v>0.9990750005502431</v>
+        <v>0.9361670862083005</v>
       </c>
       <c r="BM5" t="n">
-        <v>0.0007838186352725709</v>
+        <v>0.01552363958328837</v>
       </c>
       <c r="BN5" t="n">
-        <v>0.08460096496183359</v>
+        <v>0.5925286252594739</v>
       </c>
       <c r="BO5" t="n">
-        <v>0.0280110710076082</v>
+        <v>0.06653737138507793</v>
       </c>
       <c r="BP5" t="n">
-        <v>0.1088066587244789</v>
+        <v>0.7085205721680784</v>
       </c>
       <c r="BQ5" t="n">
-        <v>0.0327895887018049</v>
+        <v>0.08560142935062226</v>
       </c>
       <c r="BR5" t="n">
-        <v>0.006437666165988828</v>
+        <v>0.4013922320788212</v>
       </c>
       <c r="BS5" t="n">
-        <v>0.002883748161903709</v>
+        <v>0.03379463204212885</v>
       </c>
       <c r="BT5" t="n">
-        <v>0.009875582558765297</v>
+        <v>0.4665358221355828</v>
       </c>
       <c r="BU5" t="n">
-        <v>0.003600603305054491</v>
+        <v>0.04293947779773623</v>
       </c>
       <c r="BV5" t="n">
-        <v>0.01291404611001874</v>
+        <v>0.5093290058922508</v>
       </c>
       <c r="BW5" t="n">
-        <v>0.004432866665283878</v>
+        <v>0.102692716279267</v>
       </c>
       <c r="BX5" t="n">
-        <v>0.9995288547093168</v>
+        <v>0.9842716645503138</v>
       </c>
       <c r="BY5" t="n">
-        <v>0.000258094538256085</v>
+        <v>0.002800031361900816</v>
       </c>
       <c r="BZ5" t="n">
-        <v>0.9943144724367502</v>
+        <v>0.4752737026174838</v>
       </c>
       <c r="CA5" t="n">
-        <v>0.0026739726697473</v>
+        <v>0.01658808611422269</v>
       </c>
       <c r="CB5" t="n">
-        <v>0.9992478613972613</v>
+        <v>0.9361670862083005</v>
       </c>
       <c r="CC5" t="n">
-        <v>0.000718214324354206</v>
+        <v>0.01552363958328837</v>
       </c>
       <c r="CD5" t="n">
-        <v>0.1748717615050048</v>
+        <v>0.5925286252594739</v>
       </c>
       <c r="CE5" t="n">
-        <v>0.02095393316698322</v>
+        <v>0.06653737138507793</v>
       </c>
       <c r="CF5" t="n">
-        <v>0.258602610564923</v>
+        <v>0.7085205721680784</v>
       </c>
       <c r="CG5" t="n">
-        <v>0.02079275783893944</v>
+        <v>0.08560142935062226</v>
       </c>
       <c r="CH5" t="n">
-        <v>0.02916920138751555</v>
+        <v>0.4013922320788212</v>
       </c>
       <c r="CI5" t="n">
-        <v>0.006424541464569537</v>
+        <v>0.03379463204212885</v>
       </c>
       <c r="CJ5" t="n">
-        <v>0.06360028909721828</v>
+        <v>0.4665358221355828</v>
       </c>
       <c r="CK5" t="n">
-        <v>0.01014808031211118</v>
+        <v>0.04293947779773623</v>
       </c>
       <c r="CL5" t="n">
-        <v>0.06730764896954197</v>
+        <v>0.5093290058922508</v>
       </c>
       <c r="CM5" t="n">
-        <v>0.01151392779646323</v>
+        <v>0.102692716279267</v>
       </c>
       <c r="CN5" t="n">
-        <v>0.9983837211601787</v>
+        <v>0.9842716645503138</v>
       </c>
       <c r="CO5" t="n">
-        <v>0.0005066390443434229</v>
+        <v>0.002800031361900816</v>
       </c>
       <c r="CP5" t="n">
-        <v>0.9717557980622415</v>
+        <v>0.4752737026174838</v>
       </c>
       <c r="CQ5" t="n">
-        <v>0.005916417775021523</v>
+        <v>0.01658808611422269</v>
       </c>
       <c r="CR5" t="n">
-        <v>0.9990750005502431</v>
+        <v>0.9361670862083005</v>
       </c>
       <c r="CS5" t="n">
-        <v>0.0007838186352725709</v>
+        <v>0.01552363958328837</v>
       </c>
       <c r="CT5" t="n">
-        <v>0.1665614103847274</v>
+        <v>0.5925286252594739</v>
       </c>
       <c r="CU5" t="n">
-        <v>0.0260300738512959</v>
+        <v>0.06653737138507793</v>
       </c>
       <c r="CV5" t="n">
-        <v>0.2475252344013258</v>
+        <v>0.7085205721680784</v>
       </c>
       <c r="CW5" t="n">
-        <v>0.01435490040307703</v>
+        <v>0.08560142935062226</v>
       </c>
       <c r="CX5" t="n">
-        <v>0.02657026927453937</v>
+        <v>0.4013922320788212</v>
       </c>
       <c r="CY5" t="n">
-        <v>0.007083340213253564</v>
+        <v>0.03379463204212885</v>
       </c>
       <c r="CZ5" t="n">
-        <v>0.05776744495868987</v>
+        <v>0.4665358221355828</v>
       </c>
       <c r="DA5" t="n">
-        <v>0.00497703387500961</v>
+        <v>0.04293947779773623</v>
       </c>
       <c r="DB5" t="n">
-        <v>0.06147480483101354</v>
+        <v>0.5093290058922508</v>
       </c>
       <c r="DC5" t="n">
-        <v>0.007308322492220035</v>
+        <v>0.102692716279267</v>
       </c>
       <c r="DD5" t="n">
-        <v>0.9985538407021153</v>
+        <v>0.9842716645503138</v>
       </c>
       <c r="DE5" t="n">
-        <v>0.0005579290440288733</v>
+        <v>0.002800031361900816</v>
       </c>
       <c r="DF5" t="n">
-        <v>0.9743547301752176</v>
+        <v>0.4752737026174838</v>
       </c>
       <c r="DG5" t="n">
-        <v>0.006609066122853621</v>
+        <v>0.01658808611422269</v>
       </c>
       <c r="DH5" t="n">
-        <v>0.9990750005502431</v>
+        <v>0.9361670862083005</v>
       </c>
       <c r="DI5" t="n">
-        <v>0.0007838186352725709</v>
+        <v>0.01552363958328837</v>
       </c>
       <c r="DJ5" t="n">
-        <v>0.09274624113291653</v>
+        <v>0.5925286252594739</v>
       </c>
       <c r="DK5" t="n">
-        <v>0.01865384333599037</v>
+        <v>0.06653737138507793</v>
       </c>
       <c r="DL5" t="n">
-        <v>0.119044971800541</v>
+        <v>0.7085205721680784</v>
       </c>
       <c r="DM5" t="n">
-        <v>0.0204627366921747</v>
+        <v>0.08560142935062226</v>
       </c>
       <c r="DN5" t="n">
-        <v>0.007099832215974637</v>
+        <v>0.4013922320788212</v>
       </c>
       <c r="DO5" t="n">
-        <v>0.002666488764586642</v>
+        <v>0.03379463204212885</v>
       </c>
       <c r="DP5" t="n">
-        <v>0.01088306903160118</v>
+        <v>0.4665358221355828</v>
       </c>
       <c r="DQ5" t="n">
-        <v>0.003481676886868887</v>
+        <v>0.04293947779773623</v>
       </c>
       <c r="DR5" t="n">
-        <v>0.01459042890392487</v>
+        <v>0.5093290058922508</v>
       </c>
       <c r="DS5" t="n">
-        <v>0.005291405150038848</v>
+        <v>0.102692716279267</v>
       </c>
       <c r="DT5" t="n">
-        <v>0.9994818003133182</v>
+        <v>0.9842716645503138</v>
       </c>
       <c r="DU5" t="n">
-        <v>0.0002656326068632013</v>
+        <v>0.002800031361900816</v>
       </c>
       <c r="DV5" t="n">
-        <v>0.9938251672337827</v>
+        <v>0.4752737026174838</v>
       </c>
       <c r="DW5" t="n">
-        <v>0.002165485105469044</v>
+        <v>0.01658808611422269</v>
       </c>
       <c r="DX5" t="n">
-        <v>0.9990750005502431</v>
+        <v>0.9361670862083005</v>
       </c>
       <c r="DY5" t="n">
-        <v>0.0007838186352725709</v>
+        <v>0.01552363958328837</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>or_cnn</t>
+          <t>linear_regression_lasso</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1.085740698381011</v>
+        <v>0.5949890509924386</v>
       </c>
       <c r="C6" t="n">
-        <v>1.517362038343389</v>
+        <v>0.06060105712238961</v>
       </c>
       <c r="D6" t="n">
-        <v>1.323288534581483</v>
+        <v>0.7153701880770591</v>
       </c>
       <c r="E6" t="n">
-        <v>2.016245480105123</v>
+        <v>0.07936316398519874</v>
       </c>
       <c r="F6" t="n">
-        <v>0.6916562149360479</v>
+        <v>0.3968830048334096</v>
       </c>
       <c r="G6" t="n">
-        <v>1.196798440537662</v>
+        <v>0.02712702653707469</v>
       </c>
       <c r="H6" t="n">
-        <v>0.9192999719048208</v>
+        <v>0.4621810862114342</v>
       </c>
       <c r="I6" t="n">
-        <v>1.705594865040328</v>
+        <v>0.03392850004814819</v>
       </c>
       <c r="J6" t="n">
-        <v>5.816338381799146</v>
+        <v>0.5180530177871485</v>
       </c>
       <c r="K6" t="n">
-        <v>18.23963193632206</v>
-      </c>
-      <c r="L6" t="inlineStr"/>
-      <c r="M6" t="inlineStr"/>
-      <c r="N6" t="inlineStr"/>
-      <c r="O6" t="inlineStr"/>
-      <c r="P6" t="inlineStr"/>
-      <c r="Q6" t="inlineStr"/>
+        <v>0.09674888088959691</v>
+      </c>
+      <c r="L6" t="n">
+        <v>0.9844332574924139</v>
+      </c>
+      <c r="M6" t="n">
+        <v>0.001953935328980793</v>
+      </c>
+      <c r="N6" t="n">
+        <v>0.4788259375754234</v>
+      </c>
+      <c r="O6" t="n">
+        <v>0.01635890180027545</v>
+      </c>
+      <c r="P6" t="n">
+        <v>0.9376176429159968</v>
+      </c>
+      <c r="Q6" t="n">
+        <v>0.01376495502579576</v>
+      </c>
       <c r="R6" t="n">
-        <v>1.085452555569136</v>
+        <v>0.5949890509924386</v>
       </c>
       <c r="S6" t="n">
-        <v>1.51735654684364</v>
+        <v>0.06060105712238961</v>
       </c>
       <c r="T6" t="n">
-        <v>1.32424566319907</v>
+        <v>0.7153701880770591</v>
       </c>
       <c r="U6" t="n">
-        <v>2.015857640950153</v>
+        <v>0.07936316398519874</v>
       </c>
       <c r="V6" t="n">
-        <v>0.6949907351012303</v>
+        <v>0.3968830048334096</v>
       </c>
       <c r="W6" t="n">
-        <v>1.195793606058276</v>
+        <v>0.02712702653707469</v>
       </c>
       <c r="X6" t="n">
-        <v>0.9288038155456688</v>
+        <v>0.4621810862114342</v>
       </c>
       <c r="Y6" t="n">
-        <v>1.702777756971368</v>
+        <v>0.03392850004814819</v>
       </c>
       <c r="Z6" t="n">
-        <v>5.817308605078661</v>
+        <v>0.5180530177871485</v>
       </c>
       <c r="AA6" t="n">
-        <v>18.23932456996432</v>
-      </c>
-      <c r="AB6" t="inlineStr"/>
-      <c r="AC6" t="inlineStr"/>
+        <v>0.09674888088959691</v>
+      </c>
+      <c r="AB6" t="n">
+        <v>0.9844332574924139</v>
+      </c>
+      <c r="AC6" t="n">
+        <v>0.001953935328980793</v>
+      </c>
       <c r="AD6" t="n">
-        <v>0.6313604426851073</v>
+        <v>0.4788259375754234</v>
       </c>
       <c r="AE6" t="n">
-        <v>0.1697348728336757</v>
+        <v>0.01635890180027545</v>
       </c>
       <c r="AF6" t="n">
-        <v>0.9159482560030034</v>
+        <v>0.9376176429159968</v>
       </c>
       <c r="AG6" t="n">
-        <v>0.2074197567833747</v>
+        <v>0.01376495502579576</v>
       </c>
       <c r="AH6" t="n">
-        <v>1.085452555569136</v>
+        <v>0.5949890509924386</v>
       </c>
       <c r="AI6" t="n">
-        <v>1.51735654684364</v>
+        <v>0.06060105712238961</v>
       </c>
       <c r="AJ6" t="n">
-        <v>1.32424566319907</v>
+        <v>0.7153701880770591</v>
       </c>
       <c r="AK6" t="n">
-        <v>2.015857640950153</v>
+        <v>0.07936316398519874</v>
       </c>
       <c r="AL6" t="n">
-        <v>0.6949907351012303</v>
+        <v>0.3968830048334096</v>
       </c>
       <c r="AM6" t="n">
-        <v>1.195793606058276</v>
+        <v>0.02712702653707469</v>
       </c>
       <c r="AN6" t="n">
-        <v>0.9288038155456688</v>
+        <v>0.4621810862114342</v>
       </c>
       <c r="AO6" t="n">
-        <v>1.702777756971368</v>
+        <v>0.03392850004814819</v>
       </c>
       <c r="AP6" t="n">
-        <v>5.817308605078661</v>
+        <v>0.5180530177871485</v>
       </c>
       <c r="AQ6" t="n">
-        <v>18.23932456996432</v>
-      </c>
-      <c r="AR6" t="inlineStr"/>
-      <c r="AS6" t="inlineStr"/>
+        <v>0.09674888088959691</v>
+      </c>
+      <c r="AR6" t="n">
+        <v>0.9844332574924139</v>
+      </c>
+      <c r="AS6" t="n">
+        <v>0.001953935328980793</v>
+      </c>
       <c r="AT6" t="n">
-        <v>0.6313604426851073</v>
+        <v>0.4788259375754234</v>
       </c>
       <c r="AU6" t="n">
-        <v>0.1697348728336757</v>
+        <v>0.01635890180027545</v>
       </c>
       <c r="AV6" t="n">
-        <v>0.9159482560030034</v>
+        <v>0.9376176429159968</v>
       </c>
       <c r="AW6" t="n">
-        <v>0.2074197567833747</v>
+        <v>0.01376495502579576</v>
       </c>
       <c r="AX6" t="n">
-        <v>1.085452555569136</v>
+        <v>0.5949890509924386</v>
       </c>
       <c r="AY6" t="n">
-        <v>1.51735654684364</v>
+        <v>0.06060105712238961</v>
       </c>
       <c r="AZ6" t="n">
-        <v>1.32424566319907</v>
+        <v>0.7153701880770591</v>
       </c>
       <c r="BA6" t="n">
-        <v>2.015857640950153</v>
+        <v>0.07936316398519874</v>
       </c>
       <c r="BB6" t="n">
-        <v>0.6949907351012303</v>
+        <v>0.3968830048334096</v>
       </c>
       <c r="BC6" t="n">
-        <v>1.195793606058276</v>
+        <v>0.02712702653707469</v>
       </c>
       <c r="BD6" t="n">
-        <v>0.9288038155456688</v>
+        <v>0.4621810862114342</v>
       </c>
       <c r="BE6" t="n">
-        <v>1.702777756971368</v>
+        <v>0.03392850004814819</v>
       </c>
       <c r="BF6" t="n">
-        <v>5.817308605078661</v>
+        <v>0.5180530177871485</v>
       </c>
       <c r="BG6" t="n">
-        <v>18.23932456996432</v>
-      </c>
-      <c r="BH6" t="inlineStr"/>
-      <c r="BI6" t="inlineStr"/>
+        <v>0.09674888088959691</v>
+      </c>
+      <c r="BH6" t="n">
+        <v>0.9844332574924139</v>
+      </c>
+      <c r="BI6" t="n">
+        <v>0.001953935328980793</v>
+      </c>
       <c r="BJ6" t="n">
-        <v>0.6313604426851073</v>
+        <v>0.4788259375754234</v>
       </c>
       <c r="BK6" t="n">
-        <v>0.1697348728336757</v>
+        <v>0.01635890180027545</v>
       </c>
       <c r="BL6" t="n">
-        <v>0.9159482560030034</v>
+        <v>0.9376176429159968</v>
       </c>
       <c r="BM6" t="n">
-        <v>0.2074197567833747</v>
+        <v>0.01376495502579576</v>
       </c>
       <c r="BN6" t="n">
-        <v>1.085452555569136</v>
+        <v>0.5949890509924386</v>
       </c>
       <c r="BO6" t="n">
-        <v>1.51735654684364</v>
+        <v>0.06060105712238961</v>
       </c>
       <c r="BP6" t="n">
-        <v>1.32424566319907</v>
+        <v>0.7153701880770591</v>
       </c>
       <c r="BQ6" t="n">
-        <v>2.015857640950153</v>
+        <v>0.07936316398519874</v>
       </c>
       <c r="BR6" t="n">
-        <v>0.6949907351012303</v>
+        <v>0.3968830048334096</v>
       </c>
       <c r="BS6" t="n">
-        <v>1.195793606058276</v>
+        <v>0.02712702653707469</v>
       </c>
       <c r="BT6" t="n">
-        <v>0.9288038155456688</v>
+        <v>0.4621810862114342</v>
       </c>
       <c r="BU6" t="n">
-        <v>1.702777756971368</v>
+        <v>0.03392850004814819</v>
       </c>
       <c r="BV6" t="n">
-        <v>5.817308605078661</v>
+        <v>0.5180530177871485</v>
       </c>
       <c r="BW6" t="n">
-        <v>18.23932456996432</v>
-      </c>
-      <c r="BX6" t="inlineStr"/>
-      <c r="BY6" t="inlineStr"/>
+        <v>0.09674888088959691</v>
+      </c>
+      <c r="BX6" t="n">
+        <v>0.9844332574924139</v>
+      </c>
+      <c r="BY6" t="n">
+        <v>0.001953935328980793</v>
+      </c>
       <c r="BZ6" t="n">
-        <v>0.6313604426851073</v>
+        <v>0.4788259375754234</v>
       </c>
       <c r="CA6" t="n">
-        <v>0.1697348728336757</v>
+        <v>0.01635890180027545</v>
       </c>
       <c r="CB6" t="n">
-        <v>0.9159482560030034</v>
+        <v>0.9376176429159968</v>
       </c>
       <c r="CC6" t="n">
-        <v>0.2074197567833747</v>
+        <v>0.01376495502579576</v>
       </c>
       <c r="CD6" t="n">
-        <v>1.085452555569136</v>
+        <v>0.5949890509924386</v>
       </c>
       <c r="CE6" t="n">
-        <v>1.51735654684364</v>
+        <v>0.06060105712238961</v>
       </c>
       <c r="CF6" t="n">
-        <v>1.32424566319907</v>
+        <v>0.7153701880770591</v>
       </c>
       <c r="CG6" t="n">
-        <v>2.015857640950153</v>
+        <v>0.07936316398519874</v>
       </c>
       <c r="CH6" t="n">
-        <v>0.6949907351012303</v>
+        <v>0.3968830048334096</v>
       </c>
       <c r="CI6" t="n">
-        <v>1.195793606058276</v>
+        <v>0.02712702653707469</v>
       </c>
       <c r="CJ6" t="n">
-        <v>0.9288038155456688</v>
+        <v>0.4621810862114342</v>
       </c>
       <c r="CK6" t="n">
-        <v>1.702777756971368</v>
+        <v>0.03392850004814819</v>
       </c>
       <c r="CL6" t="n">
-        <v>5.817308605078661</v>
+        <v>0.5180530177871485</v>
       </c>
       <c r="CM6" t="n">
-        <v>18.23932456996432</v>
-      </c>
-      <c r="CN6" t="inlineStr"/>
-      <c r="CO6" t="inlineStr"/>
+        <v>0.09674888088959691</v>
+      </c>
+      <c r="CN6" t="n">
+        <v>0.9844332574924139</v>
+      </c>
+      <c r="CO6" t="n">
+        <v>0.001953935328980793</v>
+      </c>
       <c r="CP6" t="n">
-        <v>0.6313604426851073</v>
+        <v>0.4788259375754234</v>
       </c>
       <c r="CQ6" t="n">
-        <v>0.1697348728336757</v>
+        <v>0.01635890180027545</v>
       </c>
       <c r="CR6" t="n">
-        <v>0.9159482560030034</v>
+        <v>0.9376176429159968</v>
       </c>
       <c r="CS6" t="n">
-        <v>0.2074197567833747</v>
+        <v>0.01376495502579576</v>
       </c>
       <c r="CT6" t="n">
-        <v>1.085452555569136</v>
+        <v>0.5949890509924386</v>
       </c>
       <c r="CU6" t="n">
-        <v>1.51735654684364</v>
+        <v>0.06060105712238961</v>
       </c>
       <c r="CV6" t="n">
-        <v>1.32424566319907</v>
+        <v>0.7153701880770591</v>
       </c>
       <c r="CW6" t="n">
-        <v>2.015857640950153</v>
+        <v>0.07936316398519874</v>
       </c>
       <c r="CX6" t="n">
-        <v>0.6949907351012303</v>
+        <v>0.3968830048334096</v>
       </c>
       <c r="CY6" t="n">
-        <v>1.195793606058276</v>
+        <v>0.02712702653707469</v>
       </c>
       <c r="CZ6" t="n">
-        <v>0.9288038155456688</v>
+        <v>0.4621810862114342</v>
       </c>
       <c r="DA6" t="n">
-        <v>1.702777756971368</v>
+        <v>0.03392850004814819</v>
       </c>
       <c r="DB6" t="n">
-        <v>5.817308605078661</v>
+        <v>0.5180530177871485</v>
       </c>
       <c r="DC6" t="n">
-        <v>18.23932456996432</v>
-      </c>
-      <c r="DD6" t="inlineStr"/>
-      <c r="DE6" t="inlineStr"/>
+        <v>0.09674888088959691</v>
+      </c>
+      <c r="DD6" t="n">
+        <v>0.9844332574924139</v>
+      </c>
+      <c r="DE6" t="n">
+        <v>0.001953935328980793</v>
+      </c>
       <c r="DF6" t="n">
-        <v>0.6313604426851073</v>
+        <v>0.4788259375754234</v>
       </c>
       <c r="DG6" t="n">
-        <v>0.1697348728336757</v>
+        <v>0.01635890180027545</v>
       </c>
       <c r="DH6" t="n">
-        <v>0.9159482560030034</v>
+        <v>0.9376176429159968</v>
       </c>
       <c r="DI6" t="n">
-        <v>0.2074197567833747</v>
+        <v>0.01376495502579576</v>
       </c>
       <c r="DJ6" t="n">
-        <v>1.085452555569136</v>
+        <v>0.5949890509924386</v>
       </c>
       <c r="DK6" t="n">
-        <v>1.51735654684364</v>
+        <v>0.06060105712238961</v>
       </c>
       <c r="DL6" t="n">
-        <v>1.32424566319907</v>
+        <v>0.7153701880770591</v>
       </c>
       <c r="DM6" t="n">
-        <v>2.015857640950153</v>
+        <v>0.07936316398519874</v>
       </c>
       <c r="DN6" t="n">
-        <v>0.6949907351012303</v>
+        <v>0.3968830048334096</v>
       </c>
       <c r="DO6" t="n">
-        <v>1.195793606058276</v>
+        <v>0.02712702653707469</v>
       </c>
       <c r="DP6" t="n">
-        <v>0.9288038155456688</v>
+        <v>0.4621810862114342</v>
       </c>
       <c r="DQ6" t="n">
-        <v>1.702777756971368</v>
+        <v>0.03392850004814819</v>
       </c>
       <c r="DR6" t="n">
-        <v>5.817308605078661</v>
+        <v>0.5180530177871485</v>
       </c>
       <c r="DS6" t="n">
-        <v>18.23932456996432</v>
-      </c>
-      <c r="DT6" t="inlineStr"/>
-      <c r="DU6" t="inlineStr"/>
+        <v>0.09674888088959691</v>
+      </c>
+      <c r="DT6" t="n">
+        <v>0.9844332574924139</v>
+      </c>
+      <c r="DU6" t="n">
+        <v>0.001953935328980793</v>
+      </c>
       <c r="DV6" t="n">
-        <v>0.6313604426851073</v>
+        <v>0.4788259375754234</v>
       </c>
       <c r="DW6" t="n">
-        <v>0.1697348728336757</v>
+        <v>0.01635890180027545</v>
       </c>
       <c r="DX6" t="n">
-        <v>0.9159482560030034</v>
+        <v>0.9376176429159968</v>
       </c>
       <c r="DY6" t="n">
-        <v>0.2074197567833747</v>
+        <v>0.01376495502579576</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="inlineStr">
+        <is>
+          <t>condor</t>
+        </is>
+      </c>
+      <c r="B7" t="n">
+        <v>0.8092147512904742</v>
+      </c>
+      <c r="C7" t="n">
+        <v>0.5757146097036402</v>
+      </c>
+      <c r="D7" t="n">
+        <v>1.016204750936052</v>
+      </c>
+      <c r="E7" t="n">
+        <v>0.8873977875442447</v>
+      </c>
+      <c r="F7" t="n">
+        <v>0.4332937648319948</v>
+      </c>
+      <c r="G7" t="n">
+        <v>0.3917322378110036</v>
+      </c>
+      <c r="H7" t="n">
+        <v>0.6135132733058012</v>
+      </c>
+      <c r="I7" t="n">
+        <v>0.6772920074913116</v>
+      </c>
+      <c r="J7" t="n">
+        <v>1.820146929163423</v>
+      </c>
+      <c r="K7" t="n">
+        <v>4.207645116410219</v>
+      </c>
+      <c r="L7" t="n">
+        <v>0.9696163006228633</v>
+      </c>
+      <c r="M7" t="n">
+        <v>0.02252244464292848</v>
+      </c>
+      <c r="N7" t="n">
+        <v>0.69118533345124</v>
+      </c>
+      <c r="O7" t="n">
+        <v>0.1254550938970991</v>
+      </c>
+      <c r="P7" t="n">
+        <v>0.9397010549199413</v>
+      </c>
+      <c r="Q7" t="n">
+        <v>0.08650754441143907</v>
+      </c>
+      <c r="R7" t="n">
+        <v>0.8092147512904742</v>
+      </c>
+      <c r="S7" t="n">
+        <v>0.5757146097036402</v>
+      </c>
+      <c r="T7" t="n">
+        <v>1.016204750936052</v>
+      </c>
+      <c r="U7" t="n">
+        <v>0.8873977875442447</v>
+      </c>
+      <c r="V7" t="n">
+        <v>0.4332937648319948</v>
+      </c>
+      <c r="W7" t="n">
+        <v>0.3917322378110036</v>
+      </c>
+      <c r="X7" t="n">
+        <v>0.6135132733058012</v>
+      </c>
+      <c r="Y7" t="n">
+        <v>0.6772920074913116</v>
+      </c>
+      <c r="Z7" t="n">
+        <v>1.820146929163423</v>
+      </c>
+      <c r="AA7" t="n">
+        <v>4.207645116410219</v>
+      </c>
+      <c r="AB7" t="n">
+        <v>0.9696163006228633</v>
+      </c>
+      <c r="AC7" t="n">
+        <v>0.02252244464292848</v>
+      </c>
+      <c r="AD7" t="n">
+        <v>0.69118533345124</v>
+      </c>
+      <c r="AE7" t="n">
+        <v>0.1254550938970991</v>
+      </c>
+      <c r="AF7" t="n">
+        <v>0.9397010549199413</v>
+      </c>
+      <c r="AG7" t="n">
+        <v>0.08650754441143907</v>
+      </c>
+      <c r="AH7" t="n">
+        <v>0.8092147512904742</v>
+      </c>
+      <c r="AI7" t="n">
+        <v>0.5757146097036402</v>
+      </c>
+      <c r="AJ7" t="n">
+        <v>1.016204750936052</v>
+      </c>
+      <c r="AK7" t="n">
+        <v>0.8873977875442447</v>
+      </c>
+      <c r="AL7" t="n">
+        <v>0.4332937648319948</v>
+      </c>
+      <c r="AM7" t="n">
+        <v>0.3917322378110036</v>
+      </c>
+      <c r="AN7" t="n">
+        <v>0.6135132733058012</v>
+      </c>
+      <c r="AO7" t="n">
+        <v>0.6772920074913116</v>
+      </c>
+      <c r="AP7" t="n">
+        <v>1.820146929163423</v>
+      </c>
+      <c r="AQ7" t="n">
+        <v>4.207645116410219</v>
+      </c>
+      <c r="AR7" t="n">
+        <v>0.9696163006228633</v>
+      </c>
+      <c r="AS7" t="n">
+        <v>0.02252244464292848</v>
+      </c>
+      <c r="AT7" t="n">
+        <v>0.69118533345124</v>
+      </c>
+      <c r="AU7" t="n">
+        <v>0.1254550938970991</v>
+      </c>
+      <c r="AV7" t="n">
+        <v>0.9397010549199413</v>
+      </c>
+      <c r="AW7" t="n">
+        <v>0.08650754441143907</v>
+      </c>
+      <c r="AX7" t="n">
+        <v>0.8092147512904742</v>
+      </c>
+      <c r="AY7" t="n">
+        <v>0.5757146097036402</v>
+      </c>
+      <c r="AZ7" t="n">
+        <v>1.016204750936052</v>
+      </c>
+      <c r="BA7" t="n">
+        <v>0.8873977875442447</v>
+      </c>
+      <c r="BB7" t="n">
+        <v>0.4332937648319948</v>
+      </c>
+      <c r="BC7" t="n">
+        <v>0.3917322378110036</v>
+      </c>
+      <c r="BD7" t="n">
+        <v>0.6135132733058012</v>
+      </c>
+      <c r="BE7" t="n">
+        <v>0.6772920074913116</v>
+      </c>
+      <c r="BF7" t="n">
+        <v>1.820146929163423</v>
+      </c>
+      <c r="BG7" t="n">
+        <v>4.207645116410219</v>
+      </c>
+      <c r="BH7" t="n">
+        <v>0.9696163006228633</v>
+      </c>
+      <c r="BI7" t="n">
+        <v>0.02252244464292848</v>
+      </c>
+      <c r="BJ7" t="n">
+        <v>0.69118533345124</v>
+      </c>
+      <c r="BK7" t="n">
+        <v>0.1254550938970991</v>
+      </c>
+      <c r="BL7" t="n">
+        <v>0.9397010549199413</v>
+      </c>
+      <c r="BM7" t="n">
+        <v>0.08650754441143907</v>
+      </c>
+      <c r="BN7" t="n">
+        <v>0.8092147512904742</v>
+      </c>
+      <c r="BO7" t="n">
+        <v>0.5757146097036402</v>
+      </c>
+      <c r="BP7" t="n">
+        <v>1.016204750936052</v>
+      </c>
+      <c r="BQ7" t="n">
+        <v>0.8873977875442447</v>
+      </c>
+      <c r="BR7" t="n">
+        <v>0.4332937648319948</v>
+      </c>
+      <c r="BS7" t="n">
+        <v>0.3917322378110036</v>
+      </c>
+      <c r="BT7" t="n">
+        <v>0.6135132733058012</v>
+      </c>
+      <c r="BU7" t="n">
+        <v>0.6772920074913116</v>
+      </c>
+      <c r="BV7" t="n">
+        <v>1.820146929163423</v>
+      </c>
+      <c r="BW7" t="n">
+        <v>4.207645116410219</v>
+      </c>
+      <c r="BX7" t="n">
+        <v>0.9696163006228633</v>
+      </c>
+      <c r="BY7" t="n">
+        <v>0.02252244464292848</v>
+      </c>
+      <c r="BZ7" t="n">
+        <v>0.69118533345124</v>
+      </c>
+      <c r="CA7" t="n">
+        <v>0.1254550938970991</v>
+      </c>
+      <c r="CB7" t="n">
+        <v>0.9397010549199413</v>
+      </c>
+      <c r="CC7" t="n">
+        <v>0.08650754441143907</v>
+      </c>
+      <c r="CD7" t="n">
+        <v>0.8092147512904742</v>
+      </c>
+      <c r="CE7" t="n">
+        <v>0.5757146097036402</v>
+      </c>
+      <c r="CF7" t="n">
+        <v>1.016204750936052</v>
+      </c>
+      <c r="CG7" t="n">
+        <v>0.8873977875442447</v>
+      </c>
+      <c r="CH7" t="n">
+        <v>0.4332937648319948</v>
+      </c>
+      <c r="CI7" t="n">
+        <v>0.3917322378110036</v>
+      </c>
+      <c r="CJ7" t="n">
+        <v>0.6135132733058012</v>
+      </c>
+      <c r="CK7" t="n">
+        <v>0.6772920074913116</v>
+      </c>
+      <c r="CL7" t="n">
+        <v>1.820146929163423</v>
+      </c>
+      <c r="CM7" t="n">
+        <v>4.207645116410219</v>
+      </c>
+      <c r="CN7" t="n">
+        <v>0.9696163006228633</v>
+      </c>
+      <c r="CO7" t="n">
+        <v>0.02252244464292848</v>
+      </c>
+      <c r="CP7" t="n">
+        <v>0.69118533345124</v>
+      </c>
+      <c r="CQ7" t="n">
+        <v>0.1254550938970991</v>
+      </c>
+      <c r="CR7" t="n">
+        <v>0.9397010549199413</v>
+      </c>
+      <c r="CS7" t="n">
+        <v>0.08650754441143907</v>
+      </c>
+      <c r="CT7" t="n">
+        <v>0.8092147512904742</v>
+      </c>
+      <c r="CU7" t="n">
+        <v>0.5757146097036402</v>
+      </c>
+      <c r="CV7" t="n">
+        <v>1.016204750936052</v>
+      </c>
+      <c r="CW7" t="n">
+        <v>0.8873977875442447</v>
+      </c>
+      <c r="CX7" t="n">
+        <v>0.4332937648319948</v>
+      </c>
+      <c r="CY7" t="n">
+        <v>0.3917322378110036</v>
+      </c>
+      <c r="CZ7" t="n">
+        <v>0.6135132733058012</v>
+      </c>
+      <c r="DA7" t="n">
+        <v>0.6772920074913116</v>
+      </c>
+      <c r="DB7" t="n">
+        <v>1.820146929163423</v>
+      </c>
+      <c r="DC7" t="n">
+        <v>4.207645116410219</v>
+      </c>
+      <c r="DD7" t="n">
+        <v>0.9696163006228633</v>
+      </c>
+      <c r="DE7" t="n">
+        <v>0.02252244464292848</v>
+      </c>
+      <c r="DF7" t="n">
+        <v>0.69118533345124</v>
+      </c>
+      <c r="DG7" t="n">
+        <v>0.1254550938970991</v>
+      </c>
+      <c r="DH7" t="n">
+        <v>0.9397010549199413</v>
+      </c>
+      <c r="DI7" t="n">
+        <v>0.08650754441143907</v>
+      </c>
+      <c r="DJ7" t="n">
+        <v>0.8092147512904742</v>
+      </c>
+      <c r="DK7" t="n">
+        <v>0.5757146097036402</v>
+      </c>
+      <c r="DL7" t="n">
+        <v>1.016204750936052</v>
+      </c>
+      <c r="DM7" t="n">
+        <v>0.8873977875442447</v>
+      </c>
+      <c r="DN7" t="n">
+        <v>0.4332937648319948</v>
+      </c>
+      <c r="DO7" t="n">
+        <v>0.3917322378110036</v>
+      </c>
+      <c r="DP7" t="n">
+        <v>0.6135132733058012</v>
+      </c>
+      <c r="DQ7" t="n">
+        <v>0.6772920074913116</v>
+      </c>
+      <c r="DR7" t="n">
+        <v>1.820146929163423</v>
+      </c>
+      <c r="DS7" t="n">
+        <v>4.207645116410219</v>
+      </c>
+      <c r="DT7" t="n">
+        <v>0.9696163006228633</v>
+      </c>
+      <c r="DU7" t="n">
+        <v>0.02252244464292848</v>
+      </c>
+      <c r="DV7" t="n">
+        <v>0.69118533345124</v>
+      </c>
+      <c r="DW7" t="n">
+        <v>0.1254550938970991</v>
+      </c>
+      <c r="DX7" t="n">
+        <v>0.9397010549199413</v>
+      </c>
+      <c r="DY7" t="n">
+        <v>0.08650754441143907</v>
       </c>
     </row>
   </sheetData>
